--- a/biology/Botanique/Poinsettia/Poinsettia.xlsx
+++ b/biology/Botanique/Poinsettia/Poinsettia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poinsettia est un ancien genre botanique, aujourd'hui classé comme un sous-genre de la famille des Euphorbiaceae. Il est considéré comme synonyme du genre Euphorbia (Euphorbes véritables).
 L'une des espèces autrefois rangée parmi les Poinsettia, nommée alors Poinsettia pulcherrima et nommée aujourd'hui Euphorbia pulcherrima, est couramment appelée « Poinsettia ».
@@ -513,7 +525,9 @@
           <t>Liste d'espèces de cet ancien genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Poinsettia coccinea Dressler, voir Euphorbia hormorrhiza Radcl.-Sm.
 Poinsettia colorata (Engelm.) Dressler, voir Euphorbia colorata Engelm.
@@ -554,7 +568,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce genre provient de celui du premier ambassadeur des États-Unis au Mexique, Joel Roberts Poinsett.
 Originaire des régions tropicales du Mexique, les anciens mexicains l'appelaient « Cuetlaxóchitl » en nahuatl. « Cuetlaxtli » signifie peau et « Xochitl » signifie fleur. Une traduction littérale pourrait être « Fleur de peau » due à la couleur rouge qui ressemble à de la peau.
@@ -586,9 +602,11 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poinsettia est une plante tropicale qui peut « vivre » en intérieur, ou à l’extérieur dans certaines conditions[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poinsettia est une plante tropicale qui peut « vivre » en intérieur, ou à l’extérieur dans certaines conditions.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Journée internationale du poinsettia</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque année, aux États-Unis, en Espagne, aux Pays-Bas et dans de nombreux autres pays, l’étoile de Noël (appelée poinsettia) est célébrée le 12 décembre. À l’instar de ces différents pays, les producteurs français de Poinsettia ont décidé d’instaurer en France la journée nationale du Poinsettia. Ainsi, chaque 12 décembre, de nombreux fleuristes, jardineries et producteurs-détaillants vont fêter comme il se doit l’étoile de Noël : mises en scène de poinsettias et démonstrations de compositions vont ponctuer cette journée[réf. nécessaire].
 </t>
